--- a/DesignFile/需求/需求初稿V0.0.1.xlsx
+++ b/DesignFile/需求/需求初稿V0.0.1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="89">
   <si>
     <t>需求编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,75 +141,39 @@
     <t>CH-0004</t>
   </si>
   <si>
-    <t>QUE-CH-0010</t>
-  </si>
-  <si>
     <t>CH-0010</t>
   </si>
   <si>
-    <t>QUE-CH-0011</t>
-  </si>
-  <si>
     <t>CH-0011</t>
   </si>
   <si>
-    <t>QUE-CH-0012</t>
-  </si>
-  <si>
     <t>CH-0012</t>
   </si>
   <si>
-    <t>QUE-CH-0013</t>
-  </si>
-  <si>
     <t>CH-0013</t>
   </si>
   <si>
-    <t>QUE-CH-0014</t>
-  </si>
-  <si>
     <t>CH-0014</t>
   </si>
   <si>
-    <t>QUE-CH-0015</t>
-  </si>
-  <si>
     <t>CH-0015</t>
   </si>
   <si>
-    <t>QUE-CH-0016</t>
-  </si>
-  <si>
     <t>CH-0016</t>
   </si>
   <si>
-    <t>QUE-CH-0017</t>
-  </si>
-  <si>
     <t>CH-0017</t>
   </si>
   <si>
-    <t>QUE-CH-0018</t>
-  </si>
-  <si>
     <t>CH-0018</t>
   </si>
   <si>
-    <t>QUE-CH-0019</t>
-  </si>
-  <si>
     <t>CH-0019</t>
   </si>
   <si>
-    <t>QUE-CH-0020</t>
-  </si>
-  <si>
     <t>CH-0020</t>
   </si>
   <si>
-    <t>QUE-MAIN-0005</t>
-  </si>
-  <si>
     <t>MAIN-0005</t>
   </si>
   <si>
@@ -304,6 +268,75 @@
   </si>
   <si>
     <t>作者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整个应用的首页，展示现在已经存在的数据库信息（作者和作品）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以按照作者搜索、也可以按照作品名称搜索，满足模糊搜索。并记录客户搜索内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSD-MAIN-0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSD-MAIN-0002</t>
+  </si>
+  <si>
+    <t>SSD-MAIN-0003</t>
+  </si>
+  <si>
+    <t>SSD-MAIN-0004</t>
+  </si>
+  <si>
+    <t>SSD-MAIN-0005</t>
+  </si>
+  <si>
+    <t>SSD-MAIN-0006</t>
+  </si>
+  <si>
+    <t>SSD-MAIN-0007</t>
+  </si>
+  <si>
+    <t>SSD-MAIN-0008</t>
+  </si>
+  <si>
+    <t>SSD-MAIN-0009</t>
+  </si>
+  <si>
+    <t>SSD-MAIN-0010</t>
+  </si>
+  <si>
+    <t>SSD-MAIN-0011</t>
+  </si>
+  <si>
+    <t>SSD-MAIN-0012</t>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首界面搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首界面搜索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,9 +442,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -421,13 +451,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -736,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:D13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -749,38 +782,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="A1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="11">
+      <c r="C3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="9">
         <v>43689</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>1</v>
       </c>
     </row>
@@ -814,7 +847,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>20</v>
@@ -826,7 +859,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>22</v>
@@ -838,10 +871,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -850,10 +883,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -862,10 +895,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -874,10 +907,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -887,44 +920,56 @@
       <c r="D13" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="11">
-        <v>43691</v>
+      <c r="B15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="9">
+        <v>43704</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
@@ -969,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -984,15 +1029,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -1001,7 +1046,7 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1024,7 +1069,7 @@
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1033,7 +1078,7 @@
       <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>43689</v>
       </c>
       <c r="G3" s="3"/>
@@ -1045,7 +1090,7 @@
       <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1054,7 +1099,7 @@
       <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>43689</v>
       </c>
       <c r="G4" s="3"/>
@@ -1066,7 +1111,7 @@
       <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1075,7 +1120,7 @@
       <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>43689</v>
       </c>
       <c r="G5" s="3"/>
@@ -1087,7 +1132,7 @@
       <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1096,295 +1141,303 @@
       <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>43689</v>
       </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>57</v>
+        <v>44</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>43689</v>
       </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="108" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>67</v>
+        <v>54</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>43689</v>
       </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>69</v>
+        <v>56</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>43689</v>
       </c>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>79</v>
+        <v>66</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>43689</v>
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="6"/>
+        <v>72</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="D11" s="3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="7">
-        <v>43689</v>
+      <c r="F11" s="6">
+        <v>43704</v>
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="7">
-        <v>43689</v>
+      <c r="F12" s="6">
+        <v>43704</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="6"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>43689</v>
       </c>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="6"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>43689</v>
       </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="6"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>43689</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="6"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>43689</v>
       </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="6"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>43689</v>
       </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="6"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>43689</v>
       </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="6"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <v>43689</v>
       </c>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="6"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <v>43689</v>
       </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="6"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <v>43689</v>
       </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="6"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <v>43689</v>
       </c>
       <c r="G22" s="3"/>
@@ -1392,7 +1445,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="6"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1401,7 +1454,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="6"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1410,7 +1463,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="6"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -1419,7 +1472,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="6"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -1428,7 +1481,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -1437,7 +1490,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1446,7 +1499,7 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="6"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1455,7 +1508,7 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="6"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1464,7 +1517,7 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="6"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1473,7 +1526,7 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="6"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1482,7 +1535,7 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="6"/>
+      <c r="C33" s="5"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1491,7 +1544,7 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="6"/>
+      <c r="C34" s="5"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1500,7 +1553,7 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="6"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1509,7 +1562,7 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="6"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1518,7 +1571,7 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="6"/>
+      <c r="C37" s="5"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1527,7 +1580,7 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="6"/>
+      <c r="C38" s="5"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1536,7 +1589,7 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="6"/>
+      <c r="C39" s="5"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1545,7 +1598,7 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="6"/>
+      <c r="C40" s="5"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1554,7 +1607,7 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="6"/>
+      <c r="C41" s="5"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1563,7 +1616,7 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="6"/>
+      <c r="C42" s="5"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1572,7 +1625,7 @@
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="6"/>
+      <c r="C43" s="5"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1581,7 +1634,7 @@
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="6"/>
+      <c r="C44" s="5"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1590,7 +1643,7 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="6"/>
+      <c r="C45" s="5"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1599,7 +1652,7 @@
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="6"/>
+      <c r="C46" s="5"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1608,7 +1661,7 @@
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="6"/>
+      <c r="C47" s="5"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1617,7 +1670,7 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="6"/>
+      <c r="C48" s="5"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1626,7 +1679,7 @@
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="6"/>
+      <c r="C49" s="5"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1635,7 +1688,7 @@
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="6"/>
+      <c r="C50" s="5"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1644,7 +1697,7 @@
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="6"/>
+      <c r="C51" s="5"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1653,7 +1706,7 @@
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="6"/>
+      <c r="C52" s="5"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1662,7 +1715,7 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="6"/>
+      <c r="C53" s="5"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1671,7 +1724,7 @@
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="6"/>
+      <c r="C54" s="5"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1680,7 +1733,7 @@
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="6"/>
+      <c r="C55" s="5"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1689,7 +1742,7 @@
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="6"/>
+      <c r="C56" s="5"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1698,7 +1751,7 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="6"/>
+      <c r="C57" s="5"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1707,7 +1760,7 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="6"/>
+      <c r="C58" s="5"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1716,7 +1769,7 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
-      <c r="C59" s="6"/>
+      <c r="C59" s="5"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1725,7 +1778,7 @@
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="6"/>
+      <c r="C60" s="5"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1734,7 +1787,7 @@
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
-      <c r="C61" s="6"/>
+      <c r="C61" s="5"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1743,7 +1796,7 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
-      <c r="C62" s="6"/>
+      <c r="C62" s="5"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1752,7 +1805,7 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
-      <c r="C63" s="6"/>
+      <c r="C63" s="5"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1761,7 +1814,7 @@
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
-      <c r="C64" s="6"/>
+      <c r="C64" s="5"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1770,7 +1823,7 @@
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
-      <c r="C65" s="6"/>
+      <c r="C65" s="5"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1779,7 +1832,7 @@
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
-      <c r="C66" s="6"/>
+      <c r="C66" s="5"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1788,7 +1841,7 @@
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
-      <c r="C67" s="6"/>
+      <c r="C67" s="5"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1797,7 +1850,7 @@
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
-      <c r="C68" s="6"/>
+      <c r="C68" s="5"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1806,7 +1859,7 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
-      <c r="C69" s="6"/>
+      <c r="C69" s="5"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -1815,7 +1868,7 @@
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
-      <c r="C70" s="6"/>
+      <c r="C70" s="5"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -1824,7 +1877,7 @@
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
-      <c r="C71" s="6"/>
+      <c r="C71" s="5"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -1833,7 +1886,7 @@
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
-      <c r="C72" s="6"/>
+      <c r="C72" s="5"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -1842,7 +1895,7 @@
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
-      <c r="C73" s="6"/>
+      <c r="C73" s="5"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -1851,7 +1904,7 @@
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
-      <c r="C74" s="6"/>
+      <c r="C74" s="5"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
@@ -1860,7 +1913,7 @@
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
-      <c r="C75" s="6"/>
+      <c r="C75" s="5"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -1869,7 +1922,7 @@
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
-      <c r="C76" s="6"/>
+      <c r="C76" s="5"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -1878,7 +1931,7 @@
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
-      <c r="C77" s="6"/>
+      <c r="C77" s="5"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -1887,7 +1940,7 @@
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
-      <c r="C78" s="6"/>
+      <c r="C78" s="5"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -1896,7 +1949,7 @@
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
-      <c r="C79" s="6"/>
+      <c r="C79" s="5"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -1905,7 +1958,7 @@
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
-      <c r="C80" s="6"/>
+      <c r="C80" s="5"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -1914,7 +1967,7 @@
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
-      <c r="C81" s="6"/>
+      <c r="C81" s="5"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -1923,7 +1976,7 @@
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
-      <c r="C82" s="6"/>
+      <c r="C82" s="5"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
@@ -1932,7 +1985,7 @@
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
-      <c r="C83" s="6"/>
+      <c r="C83" s="5"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
@@ -1941,7 +1994,7 @@
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
-      <c r="C84" s="6"/>
+      <c r="C84" s="5"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
@@ -1950,7 +2003,7 @@
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
-      <c r="C85" s="6"/>
+      <c r="C85" s="5"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
@@ -1959,7 +2012,7 @@
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
-      <c r="C86" s="6"/>
+      <c r="C86" s="5"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
@@ -1968,7 +2021,7 @@
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
-      <c r="C87" s="6"/>
+      <c r="C87" s="5"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
@@ -1977,7 +2030,7 @@
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
-      <c r="C88" s="6"/>
+      <c r="C88" s="5"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
@@ -1986,7 +2039,7 @@
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
-      <c r="C89" s="6"/>
+      <c r="C89" s="5"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
@@ -1995,7 +2048,7 @@
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
-      <c r="C90" s="6"/>
+      <c r="C90" s="5"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
@@ -2004,7 +2057,7 @@
     <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
-      <c r="C91" s="6"/>
+      <c r="C91" s="5"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>

--- a/DesignFile/需求/需求初稿V0.0.1.xlsx
+++ b/DesignFile/需求/需求初稿V0.0.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15020"/>
+    <workbookView windowHeight="15020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="需求说明" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
   <si>
     <t>版本记录</t>
   </si>
@@ -111,6 +111,12 @@
     <t>SO动态加载</t>
   </si>
   <si>
+    <t>图像</t>
+  </si>
+  <si>
+    <t>处理图片</t>
+  </si>
+  <si>
     <t>需求说明</t>
   </si>
   <si>
@@ -222,19 +228,25 @@
     <t>可以按照作者搜索、也可以按照作品名称搜索，满足模糊搜索。并记录客户搜索内容</t>
   </si>
   <si>
-    <t>CH-0010</t>
-  </si>
-  <si>
-    <t>SSD-MAIN-0003</t>
-  </si>
-  <si>
-    <t>CH-0011</t>
-  </si>
-  <si>
-    <t>SSD-MAIN-0004</t>
-  </si>
-  <si>
-    <t>CH-0012</t>
+    <t>MAIN-0006</t>
+  </si>
+  <si>
+    <t>IMG-PRO-0001</t>
+  </si>
+  <si>
+    <t>可以针对图片进行各种处理。</t>
+  </si>
+  <si>
+    <t>PRO-0001</t>
+  </si>
+  <si>
+    <t>IMG-PRO-0002</t>
+  </si>
+  <si>
+    <t>针对SO大问题进行动态加载处理</t>
+  </si>
+  <si>
+    <t>PRO-0002</t>
   </si>
   <si>
     <t>SSD-MAIN-0005</t>
@@ -329,7 +341,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,25 +355,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -377,6 +380,29 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -396,13 +422,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,22 +431,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,6 +453,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -456,30 +490,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -494,7 +506,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,43 +518,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,127 +674,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,6 +705,39 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,184 +806,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1333,7 +1339,7 @@
   <sheetPr/>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -1607,9 +1613,15 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="6"/>
@@ -1655,8 +1667,8 @@
   <sheetPr/>
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1672,7 +1684,7 @@
   <sheetData>
     <row r="1" ht="31.6" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1683,42 +1695,42 @@
     </row>
     <row r="2" ht="17" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="51" spans="1:7">
       <c r="A3" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F3" s="8">
         <v>43689</v>
@@ -1727,19 +1739,19 @@
     </row>
     <row r="4" ht="286" spans="1:7">
       <c r="A4" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="F4" s="8">
         <v>43689</v>
@@ -1748,19 +1760,19 @@
     </row>
     <row r="5" ht="84" spans="1:7">
       <c r="A5" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F5" s="8">
         <v>43689</v>
@@ -1769,19 +1781,19 @@
     </row>
     <row r="6" ht="51" spans="1:7">
       <c r="A6" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F6" s="8">
         <v>43689</v>
@@ -1790,19 +1802,19 @@
     </row>
     <row r="7" ht="101" spans="1:7">
       <c r="A7" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F7" s="8">
         <v>43689</v>
@@ -1811,19 +1823,19 @@
     </row>
     <row r="8" ht="168" spans="1:7">
       <c r="A8" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F8" s="8">
         <v>43689</v>
@@ -1832,19 +1844,19 @@
     </row>
     <row r="9" ht="84" spans="1:7">
       <c r="A9" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F9" s="8">
         <v>43689</v>
@@ -1853,19 +1865,19 @@
     </row>
     <row r="10" ht="68" spans="1:7">
       <c r="A10" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F10" s="8">
         <v>43689</v>
@@ -1874,19 +1886,19 @@
     </row>
     <row r="11" ht="68" spans="1:7">
       <c r="A11" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F11" s="8">
         <v>43704</v>
@@ -1895,104 +1907,112 @@
     </row>
     <row r="12" ht="84" spans="1:7">
       <c r="A12" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F12" s="8">
         <v>43704</v>
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" ht="34" spans="1:7">
       <c r="A13" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="D13" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F13" s="8">
-        <v>43689</v>
+        <v>43839</v>
       </c>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" ht="34" spans="1:7">
       <c r="A14" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="D14" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F14" s="8">
-        <v>43689</v>
+        <v>43840</v>
       </c>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F15" s="8">
-        <v>43689</v>
+        <v>43841</v>
       </c>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F16" s="8">
-        <v>43689</v>
+        <v>43842</v>
       </c>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F17" s="8">
         <v>43689</v>
@@ -2001,15 +2021,15 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F18" s="8">
         <v>43689</v>
@@ -2018,15 +2038,15 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
       <c r="D19" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F19" s="8">
         <v>43689</v>
@@ -2035,15 +2055,15 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" s="8">
         <v>43689</v>
@@ -2052,15 +2072,15 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F21" s="8">
         <v>43689</v>
@@ -2069,15 +2089,15 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
       <c r="D22" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F22" s="8">
         <v>43689</v>
